--- a/Dataset/Folds/Fold_2/Excel/52.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6702" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7494" uniqueCount="1045">
   <si>
     <t>Doi</t>
   </si>
@@ -3064,6 +3064,366 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,                           Grace K.H.%Lee%NULL%0,                           Benjamin Y.Q.%Tan%NULL%1,                           Mingxue%Jing%NULL%0,                           Yihui%Goh%NULL%0,                           Nicholas J.H.%Ngiam%NULL%1,                           Leonard L.L.%Yeo%NULL%0,                           Aftab%Ahmad%NULL%0,                           Faheem%Ahmed Khan%NULL%1,                           Ganesh%Napolean Shanmugam%NULL%1,                           Arvind K.%Sharma%NULL%1,                           R.N.%Komalkumar%NULL%1,                           P.V.%Meenakshi%NULL%1,                           Kenam%Shah%NULL%1,                           Bhargesh%Patel%NULL%1,                           Bernard P.L.%Chan%NULL%0,                           Sibi%Sunny%NULL%0,                           Bharatendu%Chandra%NULL%0,                           Jonathan J.Y.%Ong%NULL%0,                           Prakash R.%Paliwal%NULL%0,                           Lily Y.H.%Wong%NULL%0,                           Renarebecca%Sagayanathan%NULL%0,                           Jin Tao%Chen%NULL%0,                           Alison Ying%Ying Ng%NULL%0,                           Hock Luen%Teoh%NULL%0,                           Georgios%Tsivgoulis%NULL%1,                           Cyrus S.%Ho%NULL%0,                           Roger C.%Ho%NULL%0,                           Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                            Simeng%Ma%NULL%2,                            Ying%Wang%NULL%3,                            Zhongxiang%Cai%NULL%2,                            Jianbo%Hu%NULL%1,                            Ning%Wei%NULL%1,                            Jiang%Wu%NULL%1,                            Hui%Du%NULL%0,                            Tingting%Chen%NULL%1,                            Ruiting%Li%NULL%3,                            Huawei%Tan%NULL%1,                            Lijun%Kang%NULL%2,                            Lihua%Yao%NULL%1,                            Manli%Huang%NULL%1,                            Huafen%Wang%NULL%1,                            Gaohua%Wang%NULL%1,                            Zhongchun%Liu%NULL%2,                            Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                            Lu%Dong%NULL%1,                            Tao%Wang%NULL%0,                            Chenxin%Yuan%NULL%1,                            Rao%Fu%NULL%1,                            Lei%Zhang%NULL%2,                            Bo%Liu%NULL%2,                            Mingmin%Zhang%NULL%1,                            Yuanyuan%Yin%NULL%1,                            Jiawen%Qin%NULL%1,                            Jennifer%Bouey%NULL%1,                            Min%Zhao%NULL%0,                            Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                            Yun-zhi%Yang%NULL%1,                            Xiao-Ming%Zhang%NULL%1,                            Xinying%Xu%NULL%2,                            Xinying%Xu%NULL%0,                            Qing-Li%Dou%NULL%1,                            Wen-Wu%Zhang%NULL%1,                            Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                            Hang%Wang%NULL%1,                            Yuxing%Lin%NULL%1,                            Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                            Jing%Xu%NULL%0,                            Bo-Zhi%Li%NULL%1,                            Jin-Sha%Huang%NULL%1,                            Yuan%Yang%NULL%2,                            Zhen-Tao%Zhang%NULL%1,                            Dong-Ai%Yao%NULL%1,                            Qun-Hui%Liu%NULL%1,                            Min%Jia%NULL%1,                            Dao-Kai%Gong%NULL%1,                            Xiao-Hong%Ni%NULL%1,                            Qi-Mei%Zhang%NULL%1,                            Fu-Rong%Shang%NULL%1,                            Nian%Xiong%NULL%0,                            Chun-Li%Zhu%NULL%1,                            Tao%Wang%wangtaowh@hust.edu.cn%0,                            Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                            Wenning%Fu%NULL%1,                            Xiaoran%Liu%NULL%1,                            Zhiqian%Luo%NULL%1,                            Rixing%Wang%NULL%1,                            Ning%Zhou%NULL%0,                            Shijiao%Yan%NULL%1,                            Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                            L%Xie%NULL%1,                            Y%Xu%NULL%1,                            S%Yu%NULL%1,                            B%Yao%professoryao@aliyun.com%1,                            D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                            Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                            Kun%Wang%NULL%1,                            Lu%Yin%NULL%1,                            Wen-feng%Zhao%NULL%1,                            Qing%Xue%NULL%1,                            Mao%Peng%NULL%1,                            Bao-quan%Min%NULL%1,                            Qing%Tian%NULL%1,                            Hai-xia%Leng%NULL%1,                            Jia-lin%Du%NULL%1,                            Hong%Chang%NULL%1,                            Yuan%Yang%NULL%0,                            Wei%Li%NULL%4,                            Fang-fang%Shangguan%NULL%1,                            Tian-yi%Yan%NULL%1,                            Hui-qing%Dong%NULL%1,                            Ying%Han%NULL%1,                            Yu-ping%Wang%NULL%1,                            Fiammetta%Cosci%NULL%1,                            Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                            Lulu%Yang%NULL%1,                            Shuai%Liu%NULL%1,                            Simeng%Ma%NULL%0,                            Ying%Wang%NULL%0,                            Zhongxiang%Cai%NULL%0,                            Hui%Du%NULL%0,                            Ruiting%Li%NULL%0,                            Lijun%Kang%NULL%0,                            Meilei%Su%NULL%1,                            Jihui%Zhang%NULL%1,                            Zhongchun%Liu%NULL%0,                            Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                            Xiaobin%Zhu%NULL%1,                            Shuai%Fu%NULL%1,                            Yugang%Hu%NULL%1,                            Xiaoning%Li%NULL%1,                            Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                            Hao%Zhou%haoye320@163.com%1,                            Yan%Zhou%NULL%1,                            Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                            Jing-wen%He%NULL%2,                            Jing-wen%He%NULL%0,                            Na%Zhou%NULL%1,                            Oliver%Schildgen.%NULL%3,                            Oliver%Schildgen.%NULL%0,                            Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                            Lin%Sun%NULL%1,                            Lan%Zhang%NULL%1,                            Huan%Wang%NULL%1,                            Ajiao%Fan%NULL%1,                            Bin%Yang%NULL%1,                            Wei%Li%NULL%0,                            Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                            Ranjan%Bhattacharyya%NULL%1,                            Sumita%Bhattacharyya%NULL%1,                            Sukanya%Gupta%NULL%1,                            Soumitra%Das%NULL%1,                            Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                            Kinshuk%Kohli%NULL%1,                            P%Padmakumari%NULL%1,                            Prashant Kumar%Dixit%NULL%1,                            Ajay Shankar%Prasad%NULL%1,                            Bharath Seshadri%Chakravarthy%NULL%1,                            Rajat%Shukla%NULL%1,                            Parthasarathi%Ghana%NULL%1,                            Debasish%Mahapatra%NULL%1,                            G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                            Jeffrey Pradeep%Raj%NULL%1,                            Seema%Rao%NULL%1,                            Murtuza%Ghiya%NULL%1,                            Nisanth Menon%Nedungalaparambil%NULL%1,                            Harshit%Mundra%NULL%1,                            Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                            John R%Adler%NULL%0,                            Ram%Sandesh%NULL%2,                            Ram%Sandesh%NULL%0,                            Wajeeha%Shahid%NULL%1,                            Kapeel%Dev%NULL%1,                            Nikeeta%Mandhan%NULL%1,                            Prem%Shankar%NULL%1,                            Anam%Shaikh%NULL%1,                            Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                            Ayşe%Kurtulmuş%NULL%1,                            Selim%Arpacıoğlu%NULL%1,                            Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                            Nicholas W.S.%Chew%NULL%1,                            Grace K.H.%Lee%NULL%2,                            Mingxue%Jing%NULL%2,                            Yihui%Goh%NULL%2,                            Leonard L.L.%Yeo%NULL%2,                            Ka%Zhang%NULL%1,                            Howe-Keat%Chin%NULL%1,                            Aftab%Ahmad%NULL%2,                            Faheem Ahmed%Khan%NULL%1,                            Ganesh Napolean%Shanmugam%NULL%1,                            Bernard P.L.%Chan%NULL%2,                            Sibi%Sunny%NULL%2,                            Bharatendu%Chandra%NULL%2,                            Jonathan J.Y.%Ong%NULL%2,                            Prakash R.%Paliwal%NULL%2,                            Lily Y.H.%Wong%NULL%2,                            Renarebecca%Sagayanathan%NULL%2,                            Jin Tao%Chen%NULL%2,                            Alison Ying%Ying Ng%NULL%2,                            Hock Luen%Teoh%NULL%2,                            Cyrus S.%Ho%NULL%2,                            Roger C.%Ho%NULL%2,                            Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                            Elisa%Pedroli%NULL%1,                            Guido E.%D'Aniello%NULL%1,                            Chiara%Stramba Badiale%NULL%1,                            Giada%Pietrabissa%NULL%1,                            Chiara%Manna%NULL%1,                            Marco%Stramba Badiale%NULL%1,                            Giuseppe%Riva%NULL%1,                            Gianluca%Castelnuovo%NULL%1,                            Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                            Piotr%Krajewski%NULL%2,                            Piotr%Krajewski%NULL%0,                            Rafał%Biłynicki‐Birula%NULL%2,                            Rafał%Biłynicki‐Birula%NULL%0,                            Paweł%Poznański%NULL%2,                            Paweł%Poznański%NULL%0,                            Magdalena%Krajewska%NULL%2,                            Magdalena%Krajewska%NULL%0,                            Joanna%Rymaszewska%NULL%2,                            Joanna%Rymaszewska%NULL%0,                            Łukasz%Matusiak%NULL%2,                            Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                            Jing%Liu%NULL%0,                            Asghar%Afshar Jahanshahi%NULL%1,                            Khaled%Nawaser%NULL%1,                            Ali%Yousefi%NULL%1,                            Jizhen%Li%NULL%1,                            Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                            Eman Zmaily%Dahmash%NULL%2,                            Eman Zmaily%Dahmash%NULL%0,                            Rabaa%Al‐Rousan%NULL%2,                            Rabaa%Al‐Rousan%NULL%0,                            Hassan%Alwafi%NULL%1,                            Hamzeh Mohammad%Alrawashdeh%NULL%1,                            Imene%Ghoul%NULL%1,                            Anwer%Abidine%NULL%1,                            Mohammed A.%Bokhary%NULL%1,                            Hadeel T.%AL‐Hadithi%NULL%1,                            Dalia%Ali%NULL%1,                            Rasha%Abuthawabeh%NULL%1,                            Ghada Mohammad%Abdelwahab%NULL%1,                            Yosra J.%Alhartani%NULL%1,                            Haneen%Al Muhaisen%NULL%1,                            Ayah%Dagash%NULL%1,                            Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                            Aseem%Mehra%NULL%2,                            Aseem%Mehra%NULL%0,                            Abhash%Niraula%NULL%2,                            Abhash%Niraula%NULL%0,                            Khagendra%Kafle%NULL%2,                            Khagendra%Kafle%NULL%0,                            Saroj Prasad%Deo%NULL%2,                            Saroj Prasad%Deo%NULL%0,                            Babita%Singh%NULL%2,                            Babita%Singh%NULL%0,                            Swapnajeet%Sahoo%NULL%2,                            Swapnajeet%Sahoo%NULL%0,                            Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                            Charles W.%Goss%NULL%2,                            Charles W.%Goss%NULL%0,                            Bradley A.%Evanoff%NULL%1,                            Jaime R.%Strickland%NULL%1,                            Rebecca P.%McAlister%NULL%1,                            Jennifer%Duncan%NULL%1,                            Michio%Murakami%NULL%2,                            Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                            Grace K.H.%Lee%NULL%0,                            Benjamin Y.Q.%Tan%NULL%1,                            Mingxue%Jing%NULL%0,                            Yihui%Goh%NULL%0,                            Nicholas J.H.%Ngiam%NULL%1,                            Leonard L.L.%Yeo%NULL%0,                            Aftab%Ahmad%NULL%0,                            Faheem%Ahmed Khan%NULL%1,                            Ganesh%Napolean Shanmugam%NULL%1,                            Arvind K.%Sharma%NULL%1,                            R.N.%Komalkumar%NULL%1,                            P.V.%Meenakshi%NULL%1,                            Kenam%Shah%NULL%1,                            Bhargesh%Patel%NULL%1,                            Bernard P.L.%Chan%NULL%0,                            Sibi%Sunny%NULL%0,                            Bharatendu%Chandra%NULL%0,                            Jonathan J.Y.%Ong%NULL%0,                            Prakash R.%Paliwal%NULL%0,                            Lily Y.H.%Wong%NULL%0,                            Renarebecca%Sagayanathan%NULL%0,                            Jin Tao%Chen%NULL%0,                            Alison Ying%Ying Ng%NULL%0,                            Hock Luen%Teoh%NULL%0,                            Georgios%Tsivgoulis%NULL%1,                            Cyrus S.%Ho%NULL%0,                            Roger C.%Ho%NULL%0,                            Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                             Simeng%Ma%NULL%2,                             Ying%Wang%NULL%3,                             Zhongxiang%Cai%NULL%2,                             Jianbo%Hu%NULL%1,                             Ning%Wei%NULL%1,                             Jiang%Wu%NULL%1,                             Hui%Du%NULL%0,                             Tingting%Chen%NULL%1,                             Ruiting%Li%NULL%3,                             Huawei%Tan%NULL%1,                             Lijun%Kang%NULL%2,                             Lihua%Yao%NULL%1,                             Manli%Huang%NULL%1,                             Huafen%Wang%NULL%1,                             Gaohua%Wang%NULL%1,                             Zhongchun%Liu%NULL%2,                             Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                             Lu%Dong%NULL%1,                             Tao%Wang%NULL%0,                             Chenxin%Yuan%NULL%1,                             Rao%Fu%NULL%1,                             Lei%Zhang%NULL%2,                             Bo%Liu%NULL%2,                             Mingmin%Zhang%NULL%1,                             Yuanyuan%Yin%NULL%1,                             Jiawen%Qin%NULL%1,                             Jennifer%Bouey%NULL%1,                             Min%Zhao%NULL%0,                             Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                             Yun-zhi%Yang%NULL%1,                             Xiao-Ming%Zhang%NULL%1,                             Xinying%Xu%NULL%2,                             Xinying%Xu%NULL%0,                             Qing-Li%Dou%NULL%1,                             Wen-Wu%Zhang%NULL%1,                             Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                             Hang%Wang%NULL%1,                             Yuxing%Lin%NULL%1,                             Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                             Jing%Xu%NULL%0,                             Bo-Zhi%Li%NULL%1,                             Jin-Sha%Huang%NULL%1,                             Yuan%Yang%NULL%2,                             Zhen-Tao%Zhang%NULL%1,                             Dong-Ai%Yao%NULL%1,                             Qun-Hui%Liu%NULL%1,                             Min%Jia%NULL%1,                             Dao-Kai%Gong%NULL%1,                             Xiao-Hong%Ni%NULL%1,                             Qi-Mei%Zhang%NULL%1,                             Fu-Rong%Shang%NULL%1,                             Nian%Xiong%NULL%0,                             Chun-Li%Zhu%NULL%1,                             Tao%Wang%wangtaowh@hust.edu.cn%0,                             Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                             Wenning%Fu%NULL%1,                             Xiaoran%Liu%NULL%1,                             Zhiqian%Luo%NULL%1,                             Rixing%Wang%NULL%1,                             Ning%Zhou%NULL%0,                             Shijiao%Yan%NULL%1,                             Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                             L%Xie%NULL%1,                             Y%Xu%NULL%1,                             S%Yu%NULL%1,                             B%Yao%professoryao@aliyun.com%1,                             D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                             Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                             Kun%Wang%NULL%1,                             Lu%Yin%NULL%1,                             Wen-feng%Zhao%NULL%1,                             Qing%Xue%NULL%1,                             Mao%Peng%NULL%1,                             Bao-quan%Min%NULL%1,                             Qing%Tian%NULL%1,                             Hai-xia%Leng%NULL%1,                             Jia-lin%Du%NULL%1,                             Hong%Chang%NULL%1,                             Yuan%Yang%NULL%0,                             Wei%Li%NULL%4,                             Fang-fang%Shangguan%NULL%1,                             Tian-yi%Yan%NULL%1,                             Hui-qing%Dong%NULL%1,                             Ying%Han%NULL%1,                             Yu-ping%Wang%NULL%1,                             Fiammetta%Cosci%NULL%1,                             Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                             Lulu%Yang%NULL%1,                             Shuai%Liu%NULL%1,                             Simeng%Ma%NULL%0,                             Ying%Wang%NULL%0,                             Zhongxiang%Cai%NULL%0,                             Hui%Du%NULL%0,                             Ruiting%Li%NULL%0,                             Lijun%Kang%NULL%0,                             Meilei%Su%NULL%1,                             Jihui%Zhang%NULL%1,                             Zhongchun%Liu%NULL%0,                             Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                             Xiaobin%Zhu%NULL%1,                             Shuai%Fu%NULL%1,                             Yugang%Hu%NULL%1,                             Xiaoning%Li%NULL%1,                             Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                             Hao%Zhou%haoye320@163.com%1,                             Yan%Zhou%NULL%1,                             Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                             Jing-wen%He%NULL%2,                             Jing-wen%He%NULL%0,                             Na%Zhou%NULL%1,                             Oliver%Schildgen.%NULL%3,                             Oliver%Schildgen.%NULL%0,                             Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                             Lin%Sun%NULL%1,                             Lan%Zhang%NULL%1,                             Huan%Wang%NULL%1,                             Ajiao%Fan%NULL%1,                             Bin%Yang%NULL%1,                             Wei%Li%NULL%0,                             Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                             Ranjan%Bhattacharyya%NULL%1,                             Sumita%Bhattacharyya%NULL%1,                             Sukanya%Gupta%NULL%1,                             Soumitra%Das%NULL%1,                             Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                             Kinshuk%Kohli%NULL%1,                             P%Padmakumari%NULL%1,                             Prashant Kumar%Dixit%NULL%1,                             Ajay Shankar%Prasad%NULL%1,                             Bharath Seshadri%Chakravarthy%NULL%1,                             Rajat%Shukla%NULL%1,                             Parthasarathi%Ghana%NULL%1,                             Debasish%Mahapatra%NULL%1,                             G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                             Jeffrey Pradeep%Raj%NULL%1,                             Seema%Rao%NULL%1,                             Murtuza%Ghiya%NULL%1,                             Nisanth Menon%Nedungalaparambil%NULL%1,                             Harshit%Mundra%NULL%1,                             Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                             John R%Adler%NULL%0,                             Ram%Sandesh%NULL%2,                             Ram%Sandesh%NULL%0,                             Wajeeha%Shahid%NULL%1,                             Kapeel%Dev%NULL%1,                             Nikeeta%Mandhan%NULL%1,                             Prem%Shankar%NULL%1,                             Anam%Shaikh%NULL%1,                             Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                             Ayşe%Kurtulmuş%NULL%1,                             Selim%Arpacıoğlu%NULL%1,                             Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                             Nicholas W.S.%Chew%NULL%1,                             Grace K.H.%Lee%NULL%2,                             Mingxue%Jing%NULL%2,                             Yihui%Goh%NULL%2,                             Leonard L.L.%Yeo%NULL%2,                             Ka%Zhang%NULL%1,                             Howe-Keat%Chin%NULL%1,                             Aftab%Ahmad%NULL%2,                             Faheem Ahmed%Khan%NULL%1,                             Ganesh Napolean%Shanmugam%NULL%1,                             Bernard P.L.%Chan%NULL%2,                             Sibi%Sunny%NULL%2,                             Bharatendu%Chandra%NULL%2,                             Jonathan J.Y.%Ong%NULL%2,                             Prakash R.%Paliwal%NULL%2,                             Lily Y.H.%Wong%NULL%2,                             Renarebecca%Sagayanathan%NULL%2,                             Jin Tao%Chen%NULL%2,                             Alison Ying%Ying Ng%NULL%2,                             Hock Luen%Teoh%NULL%2,                             Cyrus S.%Ho%NULL%2,                             Roger C.%Ho%NULL%2,                             Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                             Elisa%Pedroli%NULL%1,                             Guido E.%D'Aniello%NULL%1,                             Chiara%Stramba Badiale%NULL%1,                             Giada%Pietrabissa%NULL%1,                             Chiara%Manna%NULL%1,                             Marco%Stramba Badiale%NULL%1,                             Giuseppe%Riva%NULL%1,                             Gianluca%Castelnuovo%NULL%1,                             Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                             Piotr%Krajewski%NULL%2,                             Piotr%Krajewski%NULL%0,                             Rafał%Biłynicki‐Birula%NULL%2,                             Rafał%Biłynicki‐Birula%NULL%0,                             Paweł%Poznański%NULL%2,                             Paweł%Poznański%NULL%0,                             Magdalena%Krajewska%NULL%2,                             Magdalena%Krajewska%NULL%0,                             Joanna%Rymaszewska%NULL%2,                             Joanna%Rymaszewska%NULL%0,                             Łukasz%Matusiak%NULL%2,                             Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                             Jing%Liu%NULL%0,                             Asghar%Afshar Jahanshahi%NULL%1,                             Khaled%Nawaser%NULL%1,                             Ali%Yousefi%NULL%1,                             Jizhen%Li%NULL%1,                             Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                             Eman Zmaily%Dahmash%NULL%2,                             Eman Zmaily%Dahmash%NULL%0,                             Rabaa%Al‐Rousan%NULL%2,                             Rabaa%Al‐Rousan%NULL%0,                             Hassan%Alwafi%NULL%1,                             Hamzeh Mohammad%Alrawashdeh%NULL%1,                             Imene%Ghoul%NULL%1,                             Anwer%Abidine%NULL%1,                             Mohammed A.%Bokhary%NULL%1,                             Hadeel T.%AL‐Hadithi%NULL%1,                             Dalia%Ali%NULL%1,                             Rasha%Abuthawabeh%NULL%1,                             Ghada Mohammad%Abdelwahab%NULL%1,                             Yosra J.%Alhartani%NULL%1,                             Haneen%Al Muhaisen%NULL%1,                             Ayah%Dagash%NULL%1,                             Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                             Aseem%Mehra%NULL%2,                             Aseem%Mehra%NULL%0,                             Abhash%Niraula%NULL%2,                             Abhash%Niraula%NULL%0,                             Khagendra%Kafle%NULL%2,                             Khagendra%Kafle%NULL%0,                             Saroj Prasad%Deo%NULL%2,                             Saroj Prasad%Deo%NULL%0,                             Babita%Singh%NULL%2,                             Babita%Singh%NULL%0,                             Swapnajeet%Sahoo%NULL%2,                             Swapnajeet%Sahoo%NULL%0,                             Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                             Charles W.%Goss%NULL%2,                             Charles W.%Goss%NULL%0,                             Bradley A.%Evanoff%NULL%1,                             Jaime R.%Strickland%NULL%1,                             Rebecca P.%McAlister%NULL%1,                             Jennifer%Duncan%NULL%1,                             Michio%Murakami%NULL%2,                             Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                             Grace K.H.%Lee%NULL%0,                             Benjamin Y.Q.%Tan%NULL%1,                             Mingxue%Jing%NULL%0,                             Yihui%Goh%NULL%0,                             Nicholas J.H.%Ngiam%NULL%1,                             Leonard L.L.%Yeo%NULL%0,                             Aftab%Ahmad%NULL%0,                             Faheem%Ahmed Khan%NULL%1,                             Ganesh%Napolean Shanmugam%NULL%1,                             Arvind K.%Sharma%NULL%1,                             R.N.%Komalkumar%NULL%1,                             P.V.%Meenakshi%NULL%1,                             Kenam%Shah%NULL%1,                             Bhargesh%Patel%NULL%1,                             Bernard P.L.%Chan%NULL%0,                             Sibi%Sunny%NULL%0,                             Bharatendu%Chandra%NULL%0,                             Jonathan J.Y.%Ong%NULL%0,                             Prakash R.%Paliwal%NULL%0,                             Lily Y.H.%Wong%NULL%0,                             Renarebecca%Sagayanathan%NULL%0,                             Jin Tao%Chen%NULL%0,                             Alison Ying%Ying Ng%NULL%0,                             Hock Luen%Teoh%NULL%0,                             Georgios%Tsivgoulis%NULL%1,                             Cyrus S.%Ho%NULL%0,                             Roger C.%Ho%NULL%0,                             Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0, Simeng%Ma%NULL%0, Ying%Wang%NULL%0, Zhongxiang%Cai%NULL%0, Jianbo%Hu%NULL%0, Ning%Wei%NULL%0, Jiang%Wu%NULL%0, Hui%Du%NULL%0, Tingting%Chen%NULL%0, Ruiting%Li%NULL%0, Huawei%Tan%NULL%0, Lijun%Kang%NULL%0, Lihua%Yao%NULL%0, Manli%Huang%NULL%0, Huafen%Wang%NULL%0, Gaohua%Wang%NULL%0, Zhongchun%Liu%NULL%0, Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0, Lu%Dong%NULL%2, Tao%Wang%NULL%0, Chenxin%Yuan%NULL%2, Rao%Fu%NULL%2, Lei%Zhang%NULL%4, Bo%Liu%NULL%0, Mingmin%Zhang%NULL%2, Yuanyuan%Yin%NULL%2, Jiawen%Qin%NULL%2, Jennifer%Bouey%NULL%2, Min%Zhao%NULL%0, Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease 2019 (COVID-19) outbreak caused by the severe acute respiratory syndrome coronavirus 2 (SARS-Cov-2 virus) has been sustained in China since December 2019, and has become a pandemic.
+ The mental health of frontline medical staff is a concern.
+ In this study, we aimed to identify the factors influencing medical worker anxiety in China during the COVID-19 outbreak.
+ We conducted a cross-sectional study to estimate the prevalence of anxiety among medical staff in China from 10 February 2020 to 20 February 2020 using the Zung Self-rating Anxiety Scale (SAS) to assess anxiety, with the criteria of normal (⩽49), mild (50–59), moderate (60–70) and severe anxiety (⩾70).
+ We used multivariable linear regression to determine the factors (e.
+g.
+ having direct contact when treating infected patients, being a medical staff worker from Hubei province, being a suspect case) for anxiety.
+ We also used adjusted models to confirm independent factors for anxiety after adjusting for gender, age, education and marital status.
+ Of 512 medical staff in China, 164 (32.03%) had had direct contact treating infected patients.
+ The prevalence of anxiety was 12.5%, with 53 workers suffering from mild (10.35%), seven workers suffering from moderate (1.36%) and four workers suffering from severe anxiety (0.78%).
+ After adjusting for sociodemographic characteristics (gender, age, education and marital status), medical staff who had had direct contact treating infected patients experienced higher anxiety scores than those who had not had direct contact (β value = 2.33, confidence interval (CI) 0.65–4.00; P = 0.0068).
+ A similar trend was observed in medical staff from Hubei province, compared with those from other parts of China (β value = 3.67, CI 1.44–5.89; P = 0.0013).
+ The most important variable was suspect cases with high anxiety scores, compared to non-suspect cases (β value = 4.44, CI 1.55–7.33; P = 0.0028).
+ In this survey of hospital medical workers during the COVID-19 outbreak in China, we found that study participants experienced anxiety symptoms, especially those who had direct clinical contact with infected patients; as did those in the worst affected areas, including Hubei province; and those who were suspect cases.
+ Governments and healthcare authorities should proactively implement appropriate psychological intervention programmes, to prevent, alleviate or treat increased anxiety.
+</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0, Yun-zhi%Yang%NULL%2, Xiao-Ming%Zhang%NULL%2, Xinying%Xu%NULL%4, Xinying%Xu%NULL%0, Qing-Li%Dou%NULL%2, Wen-Wu%Zhang%NULL%2, Andy S. K.%Cheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The psychological state of medical staff during the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0, Hang%Wang%NULL%0, Yuxing%Lin%NULL%0, Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%0, Jing%Xu%NULL%0, Bo-Zhi%Li%NULL%1, Jin-Sha%Huang%NULL%1, Yuan%Yang%NULL%0, Zhen-Tao%Zhang%NULL%1, Dong-Ai%Yao%NULL%1, Qun-Hui%Liu%NULL%1, Min%Jia%NULL%1, Dao-Kai%Gong%NULL%1, Xiao-Hong%Ni%NULL%1, Qi-Mei%Zhang%NULL%1, Fu-Rong%Shang%NULL%1, Nian%Xiong%NULL%0, Chun-Li%Zhu%NULL%1, Tao%Wang%wangtaowh@hust.edu.cn%0, Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              A considerable number of medical staff suffered from depressive symptoms and PTSD.
+</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0, Wenning%Fu%NULL%0, Xiaoran%Liu%NULL%0, Zhiqian%Luo%NULL%0, Rixing%Wang%NULL%0, Ning%Zhou%NULL%0, Shijiao%Yan%NULL%0, Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%0, L%Xie%NULL%1, Y%Xu%NULL%1, S%Yu%NULL%1, B%Yao%professoryao@aliyun.com%1, D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0, Ning%Zhao%zhaoning2018@email.szu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0, Kun%Wang%NULL%0, Lu%Yin%NULL%0, Wen-feng%Zhao%NULL%0, Qing%Xue%NULL%0, Mao%Peng%NULL%0, Bao-quan%Min%NULL%0, Qing%Tian%NULL%0, Hai-xia%Leng%NULL%0, Jia-lin%Du%NULL%0, Hong%Chang%NULL%0, Yuan%Yang%NULL%0, Wei%Li%NULL%0, Fang-fang%Shangguan%NULL%0, Tian-yi%Yan%NULL%0, Hui-qing%Dong%NULL%0, Ying%Han%NULL%0, Yu-ping%Wang%NULL%0, Fiammetta%Cosci%NULL%0, Hong-xing%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>S. Karger AG</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%0, Lulu%Yang%NULL%1, Shuai%Liu%NULL%1, Simeng%Ma%NULL%0, Ying%Wang%NULL%0, Zhongxiang%Cai%NULL%0, Hui%Du%NULL%0, Ruiting%Li%NULL%0, Lijun%Kang%NULL%0, Meilei%Su%NULL%1, Jihui%Zhang%NULL%1, Zhongchun%Liu%NULL%0, Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0, Xiaobin%Zhu%NULL%2, Shuai%Fu%NULL%2, Yugang%Hu%NULL%2, Xiaoning%Li%NULL%0, Jinsong%Xiao%NULL%2]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0, Hao%Zhou%haoye320@163.com%2, Yan%Zhou%NULL%2, Fang%Zhou%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of this study was to investigate the prevalence of sleep problems, depression and anxiety symptoms among conscripted frontline nurses fighting coronavirus disease 2019 (COVID-19) in Wuhan.
+</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%0, Jing-wen%He%NULL%2, Jing-wen%He%NULL%0, Na%Zhou%NULL%1, Oliver%Schildgen.%NULL%3, Oliver%Schildgen.%NULL%0, Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0, Lin%Sun%NULL%0, Lan%Zhang%NULL%0, Huan%Wang%NULL%2, Ajiao%Fan%NULL%2, Bin%Yang%NULL%2, Wei%Li%NULL%0, Shifu%Xiao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0, Ranjan%Bhattacharyya%NULL%2, Sumita%Bhattacharyya%NULL%2, Sukanya%Gupta%NULL%2, Soumitra%Das%NULL%2, Bejoy Bikram%Banerjee%NULL%2]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer - Medknow</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%0, Kinshuk%Kohli%NULL%1, P%Padmakumari%NULL%1, Prashant Kumar%Dixit%NULL%1, Ajay Shankar%Prasad%NULL%1, Bharath Seshadri%Chakravarthy%NULL%1, Rajat%Shukla%NULL%1, Parthasarathi%Ghana%NULL%1, Debasish%Mahapatra%NULL%1, G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%0, Jeffrey Pradeep%Raj%NULL%1, Seema%Rao%NULL%1, Murtuza%Ghiya%NULL%1, Nisanth Menon%Nedungalaparambil%NULL%1, Harshit%Mundra%NULL%1, Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0, John R%Adler%NULL%0, Ram%Sandesh%NULL%2, Ram%Sandesh%NULL%0, Wajeeha%Shahid%NULL%1, Kapeel%Dev%NULL%1, Nikeeta%Mandhan%NULL%1, Prem%Shankar%NULL%1, Anam%Shaikh%NULL%1, Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cureus</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0, Ayşe%Kurtulmuş%NULL%2, Selim%Arpacıoğlu%NULL%2, Emrah%Karadere%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0, Nicholas W.S.%Chew%NULL%0, Grace K.H.%Lee%NULL%0, Mingxue%Jing%NULL%0, Yihui%Goh%NULL%0, Leonard L.L.%Yeo%NULL%0, Ka%Zhang%NULL%0, Howe-Keat%Chin%NULL%0, Aftab%Ahmad%NULL%0, Faheem Ahmed%Khan%NULL%0, Ganesh Napolean%Shanmugam%NULL%0, Bernard P.L.%Chan%NULL%0, Sibi%Sunny%NULL%0, Bharatendu%Chandra%NULL%0, Jonathan J.Y.%Ong%NULL%0, Prakash R.%Paliwal%NULL%0, Lily Y.H.%Wong%NULL%0, Renarebecca%Sagayanathan%NULL%0, Jin Tao%Chen%NULL%0, Alison Ying%Ying Ng%NULL%0, Hock Luen%Teoh%NULL%0, Cyrus S.%Ho%NULL%0, Roger C.%Ho%NULL%0, Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>American College of Physicians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: The COVID-19 pandemic had a massive impact on health care systems, increasing the risks of psychological distress in health professionals.
+ This study aims at assessing the prevalence of burnout and psychopathological conditions in health professionals working in a health institution in the Northern Italy, and to identify socio-demographic, work-related and psychological predictors of burnout.
+</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0, Elisa%Pedroli%NULL%0, Guido E.%D'Aniello%NULL%0, Chiara%Stramba Badiale%NULL%0, Giada%Pietrabissa%NULL%0, Chiara%Manna%NULL%0, Marco%Stramba Badiale%NULL%0, Giuseppe%Riva%NULL%0, Gianluca%Castelnuovo%NULL%0, Enrico%Molinari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%0, Piotr%Krajewski%NULL%2, Piotr%Krajewski%NULL%0, Rafał%Biłynicki‐Birula%NULL%2, Rafał%Biłynicki‐Birula%NULL%0, Paweł%Poznański%NULL%2, Paweł%Poznański%NULL%0, Magdalena%Krajewska%NULL%2, Magdalena%Krajewska%NULL%0, Joanna%Rymaszewska%NULL%2, Joanna%Rymaszewska%NULL%0, Łukasz%Matusiak%NULL%2, Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              A sizable portion of healthcare staff reached the cutoff levels of disorders in anxiety (28.0%), depression (30.6%), and distress (20.1%) to require mental health attention themselves.
+</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0, Jing%Liu%NULL%0, Asghar%Afshar Jahanshahi%NULL%2, Khaled%Nawaser%NULL%2, Ali%Yousefi%NULL%2, Jizhen%Li%NULL%2, Shuhua%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0, Eman Zmaily%Dahmash%NULL%4, Eman Zmaily%Dahmash%NULL%0, Rabaa%Al‐Rousan%NULL%4, Rabaa%Al‐Rousan%NULL%0, Hassan%Alwafi%NULL%2, Hamzeh Mohammad%Alrawashdeh%NULL%2, Imene%Ghoul%NULL%2, Anwer%Abidine%NULL%2, Mohammed A.%Bokhary%NULL%2, Hadeel T.%AL‐Hadithi%NULL%2, Dalia%Ali%NULL%2, Rasha%Abuthawabeh%NULL%2, Ghada Mohammad%Abdelwahab%NULL%2, Yosra J.%Alhartani%NULL%2, Haneen%Al Muhaisen%NULL%2, Ayah%Dagash%NULL%2, Hamad S.%Alyami%NULL%2]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%0, Aseem%Mehra%NULL%0, Aseem%Mehra%NULL%0, Abhash%Niraula%NULL%2, Abhash%Niraula%NULL%0, Khagendra%Kafle%NULL%2, Khagendra%Kafle%NULL%0, Saroj Prasad%Deo%NULL%2, Saroj Prasad%Deo%NULL%0, Babita%Singh%NULL%2, Babita%Singh%NULL%0, Swapnajeet%Sahoo%NULL%0, Swapnajeet%Sahoo%NULL%0, Sandeep%Grover%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease 2019 (COVID-19) pandemic has put considerable physical and emotional strain on frontline healthcare workers.
+ Among frontline healthcare workers, physician trainees represent a unique group—functioning simultaneously as both learners and caregivers and experiencing considerable challenges during the pandemic.
+ However, we have a limited understanding regarding the emotional effects and vulnerability experienced by trainees during the pandemic.
+ We investigated the effects of trainee exposure to patients being tested for COVID-19 on their depression, anxiety, stress, burnout and professional fulfillment.
+ All physician trainees at an academic medical center (n = 1375) were invited to participate in an online survey.
+ We compared the measures of depression, anxiety, stress, burnout and professional fulfillment among trainees who were exposed to patients being tested for COVID-19 and those that were not, using univariable and multivariable models.
+ We also evaluated perceived life stressors such as childcare, home schooling, personal finances and work-family balance among both groups.
+ 393 trainees completed the survey (29% response rate).
+ Compared to the non-exposed group, the exposed group had a higher prevalence of stress (29.4% vs.
+ 18.9%), and burnout (46.3% vs.
+ 33.7%).
+ The exposed group also experienced moderate to extremely high perceived stress regarding childcare and had a lower work-family balance.
+ Multivariable models indicated that trainees who were exposed to COVID-19 patients reported significantly higher stress (10.96 [95% CI, 9.65 to 12.46] vs 8.44 [95% CI, 7.3 to 9.76]; P = 0.043) and were more likely to be burned out (1.31 [95% CI, 1.21 to1.41] vs 1.07 [95% CI, 0.96 to 1.19]; P = 0.002].
+ We also found that female trainees were more likely to be stressed (P = 0.043); while unmarried trainees were more likely to be depressed (P = 0.009), and marginally more likely to have anxiety (P = 0.051).
+ To address these challenges, wellness programs should focus on sustaining current programs, develop new and targeted mental health resources that are widely accessible and devise strategies for creating awareness regarding these resources.
+</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%0, Charles W.%Goss%NULL%2, Charles W.%Goss%NULL%0, Bradley A.%Evanoff%NULL%1, Jaime R.%Strickland%NULL%1, Rebecca P.%McAlister%NULL%1, Jennifer%Duncan%NULL%1, Michio%Murakami%NULL%2, Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Commonly reported symptoms are headache, throat pain and lethargy.
+</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%0, Grace K.H.%Lee%NULL%0, Benjamin Y.Q.%Tan%NULL%0, Mingxue%Jing%NULL%0, Yihui%Goh%NULL%0, Nicholas J.H.%Ngiam%NULL%1, Leonard L.L.%Yeo%NULL%0, Aftab%Ahmad%NULL%0, Faheem%Ahmed Khan%NULL%1, Ganesh%Napolean Shanmugam%NULL%1, Arvind K.%Sharma%NULL%0, R.N.%Komalkumar%NULL%1, P.V.%Meenakshi%NULL%1, Kenam%Shah%NULL%0, Bhargesh%Patel%NULL%0, Bernard P.L.%Chan%NULL%0, Sibi%Sunny%NULL%0, Bharatendu%Chandra%NULL%0, Jonathan J.Y.%Ong%NULL%0, Prakash R.%Paliwal%NULL%0, Lily Y.H.%Wong%NULL%0, Renarebecca%Sagayanathan%NULL%0, Jin Tao%Chen%NULL%0, Alison Ying%Ying Ng%NULL%0, Hock Luen%Teoh%NULL%0, Georgios%Tsivgoulis%NULL%0, Cyrus S.%Ho%NULL%0, Roger C.%Ho%NULL%0, Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3405,7 +3765,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>908</v>
+        <v>994</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -3417,10 +3777,10 @@
         <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3">
@@ -3437,7 +3797,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>909</v>
+        <v>996</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -3449,10 +3809,10 @@
         <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>997</v>
       </c>
     </row>
     <row r="4">
@@ -3463,28 +3823,28 @@
         <v>44044.0</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>732</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>733</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -3498,10 +3858,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>998</v>
       </c>
       <c r="E5" t="s">
-        <v>910</v>
+        <v>999</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -3513,10 +3873,10 @@
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -3530,10 +3890,10 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>1001</v>
       </c>
       <c r="E6" t="s">
-        <v>911</v>
+        <v>1002</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -3545,10 +3905,10 @@
         <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7">
@@ -3565,7 +3925,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>912</v>
+        <v>1004</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -3577,10 +3937,10 @@
         <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="8">
@@ -3591,22 +3951,22 @@
         <v>43920.0</v>
       </c>
       <c r="C8" t="s">
-        <v>877</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>913</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>914</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>880</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
@@ -3626,10 +3986,10 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>1005</v>
       </c>
       <c r="E9" t="s">
-        <v>915</v>
+        <v>1006</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -3641,10 +4001,10 @@
         <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>997</v>
       </c>
     </row>
     <row r="10">
@@ -3661,7 +4021,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>916</v>
+        <v>1007</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -3673,10 +4033,10 @@
         <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="11">
@@ -3693,7 +4053,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>917</v>
+        <v>1009</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -3705,10 +4065,10 @@
         <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="12">
@@ -3719,22 +4079,22 @@
         <v>43910.0</v>
       </c>
       <c r="C12" t="s">
-        <v>884</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>918</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>919</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>880</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>887</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
         <v>54</v>
@@ -3757,7 +4117,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>920</v>
+        <v>1010</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -3769,10 +4129,10 @@
         <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="14">
@@ -3789,7 +4149,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>921</v>
+        <v>1012</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -3801,10 +4161,10 @@
         <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="15">
@@ -3821,7 +4181,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>922</v>
+        <v>1014</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -3833,10 +4193,10 @@
         <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="16">
@@ -3853,7 +4213,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>923</v>
+        <v>1016</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -3865,10 +4225,10 @@
         <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="17">
@@ -3882,10 +4242,10 @@
         <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>1017</v>
       </c>
       <c r="E17" t="s">
-        <v>924</v>
+        <v>1018</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -3897,10 +4257,10 @@
         <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18">
@@ -3917,7 +4277,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>925</v>
+        <v>1020</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -3929,10 +4289,10 @@
         <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="19">
@@ -3949,7 +4309,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>926</v>
+        <v>1021</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3961,10 +4321,10 @@
         <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="20">
@@ -3981,7 +4341,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>927</v>
+        <v>1023</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3993,10 +4353,10 @@
         <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="21">
@@ -4013,7 +4373,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>928</v>
+        <v>1025</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -4025,10 +4385,10 @@
         <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="22">
@@ -4045,7 +4405,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>929</v>
+        <v>1026</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -4057,10 +4417,10 @@
         <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="23">
@@ -4109,7 +4469,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>930</v>
+        <v>1028</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -4121,10 +4481,10 @@
         <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="25">
@@ -4141,7 +4501,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>931</v>
+        <v>1029</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -4153,10 +4513,10 @@
         <v>58</v>
       </c>
       <c r="I25" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="26">
@@ -4167,25 +4527,25 @@
         <v>2020.0</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>932</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>673</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
         <v>54</v>
@@ -4202,10 +4562,10 @@
         <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>1031</v>
       </c>
       <c r="E27" t="s">
-        <v>933</v>
+        <v>1032</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -4217,10 +4577,10 @@
         <v>146</v>
       </c>
       <c r="I27" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="28">
@@ -4237,7 +4597,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>934</v>
+        <v>1033</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -4249,10 +4609,10 @@
         <v>150</v>
       </c>
       <c r="I28" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="29">
@@ -4266,10 +4626,10 @@
         <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>1035</v>
       </c>
       <c r="E29" t="s">
-        <v>935</v>
+        <v>1036</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -4281,10 +4641,10 @@
         <v>155</v>
       </c>
       <c r="I29" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>997</v>
       </c>
     </row>
     <row r="30">
@@ -4301,7 +4661,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>936</v>
+        <v>1037</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -4313,10 +4673,10 @@
         <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="31">
@@ -4333,7 +4693,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>937</v>
+        <v>1039</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -4345,10 +4705,10 @@
         <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="32">
@@ -4362,10 +4722,10 @@
         <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>1040</v>
       </c>
       <c r="E32" t="s">
-        <v>938</v>
+        <v>1041</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -4377,10 +4737,10 @@
         <v>167</v>
       </c>
       <c r="I32" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="33">
@@ -4394,10 +4754,10 @@
         <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>1043</v>
       </c>
       <c r="E33" t="s">
-        <v>939</v>
+        <v>1044</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>
@@ -4409,10 +4769,10 @@
         <v>172</v>
       </c>
       <c r="I33" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
